--- a/data-raw/forster.wheat.uniformity.xlsx
+++ b/data-raw/forster.wheat.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330CEE7-D87E-4CE6-9C9E-E6D297CEBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99115B98-CCE8-40EC-9491-C5A301E5333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1665" windowWidth="9930" windowHeight="10245" xr2:uid="{FA3E9AE0-EC78-4294-ABEA-DAC898C6EEB4}"/>
+    <workbookView xWindow="3320" yWindow="2280" windowWidth="7590" windowHeight="8130" xr2:uid="{FA3E9AE0-EC78-4294-ABEA-DAC898C6EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,9 +86,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -127,7 +126,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -233,7 +232,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -375,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,519 +389,516 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>125</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>117</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>125</v>
       </c>
-      <c r="D1" s="1">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1">
+        <v>135</v>
+      </c>
+      <c r="E1">
         <v>159</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>139</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>150</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>164</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>143</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>121</v>
       </c>
-      <c r="B2" s="1">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>135</v>
+      </c>
+      <c r="C2">
         <v>123</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>147</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>147</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>130</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>141</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>154</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>144</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>124</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>137</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>126</v>
       </c>
-      <c r="D3" s="1">
-        <v>135</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3">
+        <v>135</v>
+      </c>
+      <c r="E3">
         <v>142</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>142</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>138</v>
       </c>
-      <c r="H3" s="1">
-        <v>135</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3">
+        <v>135</v>
+      </c>
+      <c r="I3">
         <v>139</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>125</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>134</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>127</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>130</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>144</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>133</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>141</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>147</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>142</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>128</v>
       </c>
-      <c r="B5" s="1">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>135</v>
+      </c>
+      <c r="C5">
         <v>121</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>136</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>138</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>140</v>
       </c>
-      <c r="G5" s="1">
-        <v>135</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5">
+        <v>135</v>
+      </c>
+      <c r="H5">
         <v>149</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>139</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>132</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>127</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>118</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>134</v>
       </c>
-      <c r="E6" s="1">
-        <v>135</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6">
+        <v>135</v>
+      </c>
+      <c r="F6">
         <v>137</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>137</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>138</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>127</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>137</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>133</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>122</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>131</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>120</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>137</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>139</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>142</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>133</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>141</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>128</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>130</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>126</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>119</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>149</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>143</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>132</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>133</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>123</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>123</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>119</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>120</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>111</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>139</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>152</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>142</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>140</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>115</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>125</v>
       </c>
-      <c r="C10" s="1">
-        <v>135</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10">
+        <v>135</v>
+      </c>
+      <c r="D10">
         <v>121</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>125</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>143</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>143</v>
       </c>
-      <c r="H10" s="1">
-        <v>135</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10">
+        <v>135</v>
+      </c>
+      <c r="I10">
         <v>143</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>121</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>120</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>133</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>132</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>128</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>144</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>133</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>127</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>137</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>137</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>123</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>141</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>124</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>128</v>
       </c>
-      <c r="F12" s="1">
-        <v>135</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12">
+        <v>135</v>
+      </c>
+      <c r="G12">
         <v>139</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>139</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>137</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>127</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>131</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>136</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>121</v>
       </c>
-      <c r="E13" s="1">
-        <v>135</v>
-      </c>
-      <c r="F13" s="1">
-        <v>135</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13">
+        <v>135</v>
+      </c>
+      <c r="F13">
+        <v>135</v>
+      </c>
+      <c r="G13">
         <v>133</v>
       </c>
-      <c r="H13" s="1">
-        <v>135</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13">
+        <v>135</v>
+      </c>
+      <c r="I13">
         <v>133</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>122</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>124</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>144</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>132</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>128</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>136</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>143</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>145</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>143</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>122</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>141</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>143</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>125</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>139</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>148</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>159</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>152</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>130</v>
       </c>
-      <c r="B16" s="1">
-        <v>135</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
         <v>161</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>154</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>154</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>153</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>141</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>130</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>152</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>161</v>
       </c>
     </row>
@@ -910,7 +906,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000</oddFooter>
   </headerFooter>
 </worksheet>
 </file>